--- a/templates/{THEIR GROUP_NUMBER}_{YOUR GROUP_NUMBER}_preliminary_ML_report feedback_{YOUR_NAME}_{YOUR_STUDENT_NUMBER}.xlsx
+++ b/templates/{THEIR GROUP_NUMBER}_{YOUR GROUP_NUMBER}_preliminary_ML_report feedback_{YOUR_NAME}_{YOUR_STUDENT_NUMBER}.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -747,6 +747,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,21 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -787,6 +787,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1115,17 +1119,17 @@
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="57" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="43"/>
@@ -1134,7 +1138,7 @@
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="31"/>
@@ -1151,7 +1155,7 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32">
         <v>0</v>
@@ -1166,7 +1170,7 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="31"/>
@@ -1183,7 +1187,7 @@
       <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26">
         <v>0</v>
@@ -1198,7 +1202,7 @@
       <c r="I12" s="47"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32">
         <v>0</v>
@@ -1418,7 +1422,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
